--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2362707.082165902</v>
+        <v>2366112.573290351</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359933</v>
+        <v>6663746.095359934</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095099</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>22.71569781256404</v>
+        <v>414.0711398554625</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958793</v>
+        <v>162.9947207958792</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>165.9646280284963</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
         <v>251.2471250950627</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714823</v>
+        <v>98.31432270724774</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356721</v>
+        <v>66.70865780356718</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100815</v>
+        <v>59.24433418100809</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.4432253296167</v>
       </c>
       <c r="T3" t="n">
-        <v>15.20174324432294</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8980292624121</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>56.7470968618266</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>91.13245187459025</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>272.5515514723289</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>215.0829460816119</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>25.31590541686258</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>164.241764346741</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>151.5236087740384</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>122.5935461816077</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>102.8228810500214</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>170.534420263078</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>88.83883863998618</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>14.20241529279299</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873211</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292594</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492315</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>42.32069823344303</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>147.0633545968146</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2535,7 +2535,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2575,7 +2575,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.6898441249706</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>67.33742371513297</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>181.1375494785986</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>149.4642351393305</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.6898441249706</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>7.077413255850625</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>173.626889274475</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>105.318772205421</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>235.9955072668612</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881751</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>84.69473660442755</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>126.8772582534106</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1758.897680571384</v>
+        <v>1371.353075685113</v>
       </c>
       <c r="C2" t="n">
-        <v>1389.935163630972</v>
+        <v>1371.353075685113</v>
       </c>
       <c r="D2" t="n">
-        <v>1031.669465024222</v>
+        <v>1371.353075685113</v>
       </c>
       <c r="E2" t="n">
-        <v>645.8812124259775</v>
+        <v>1371.353075685113</v>
       </c>
       <c r="F2" t="n">
-        <v>234.89530763637</v>
+        <v>960.3671708955053</v>
       </c>
       <c r="G2" t="n">
-        <v>211.9501583307497</v>
+        <v>542.1134942738261</v>
       </c>
       <c r="H2" t="n">
         <v>211.9501583307497</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369992</v>
+        <v>47.30902621369997</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015918</v>
+        <v>138.9642385015916</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060726</v>
+        <v>397.0764468060729</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927216</v>
+        <v>769.5640925927227</v>
       </c>
       <c r="M2" t="n">
         <v>1200.634914689017</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811686</v>
+        <v>1624.048915811687</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633678</v>
+        <v>1978.67911263368</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054139</v>
+        <v>2243.673398054141</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684996</v>
+        <v>2365.451310684998</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.451310684996</v>
+        <v>2365.451310684998</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.451310684996</v>
+        <v>2197.810272272376</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.451310684996</v>
+        <v>1977.906705798724</v>
       </c>
       <c r="U2" t="n">
-        <v>2111.666335841498</v>
+        <v>1724.121730955227</v>
       </c>
       <c r="V2" t="n">
-        <v>2111.666335841498</v>
+        <v>1724.121730955227</v>
       </c>
       <c r="W2" t="n">
-        <v>1758.897680571384</v>
+        <v>1371.353075685113</v>
       </c>
       <c r="X2" t="n">
-        <v>1758.897680571384</v>
+        <v>1371.353075685113</v>
       </c>
       <c r="Y2" t="n">
-        <v>1758.897680571384</v>
+        <v>1371.353075685113</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.8568241913216</v>
+        <v>843.1583574385022</v>
       </c>
       <c r="C3" t="n">
-        <v>814.4037949101946</v>
+        <v>668.7053281573752</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4693852489434</v>
+        <v>519.770918496124</v>
       </c>
       <c r="E3" t="n">
-        <v>506.2319302434878</v>
+        <v>360.5334634906685</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6973722703727</v>
+        <v>213.9989055175534</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6321658854671</v>
+        <v>213.9989055175534</v>
       </c>
       <c r="H3" t="n">
         <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369992</v>
+        <v>47.30902621369997</v>
       </c>
       <c r="J3" t="n">
-        <v>47.30902621369992</v>
+        <v>47.30902621369997</v>
       </c>
       <c r="K3" t="n">
-        <v>278.0105538592123</v>
+        <v>278.0105538592126</v>
       </c>
       <c r="L3" t="n">
-        <v>649.6216244022457</v>
+        <v>649.6216244022462</v>
       </c>
       <c r="M3" t="n">
-        <v>1135.253437604435</v>
+        <v>1135.253437604436</v>
       </c>
       <c r="N3" t="n">
-        <v>1649.445493246984</v>
+        <v>1649.445493246985</v>
       </c>
       <c r="O3" t="n">
-        <v>2053.415090336857</v>
+        <v>2053.415090336858</v>
       </c>
       <c r="P3" t="n">
         <v>2360.633238912867</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684996</v>
+        <v>2365.451310684998</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885998</v>
+        <v>2305.608548886</v>
       </c>
       <c r="S3" t="n">
-        <v>2305.608548885998</v>
+        <v>2144.554785926791</v>
       </c>
       <c r="T3" t="n">
-        <v>2290.253252679611</v>
+        <v>2144.554785926791</v>
       </c>
       <c r="U3" t="n">
-        <v>2062.073425141821</v>
+        <v>1916.374958389001</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.921316910078</v>
+        <v>1681.222850157259</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.683960181876</v>
+        <v>1426.985493429057</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.832459976343</v>
+        <v>1219.133993223524</v>
       </c>
       <c r="Y3" t="n">
-        <v>1157.07216121139</v>
+        <v>1011.37369445857</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104.6293260741308</v>
+        <v>139.3620079052053</v>
       </c>
       <c r="C4" t="n">
-        <v>47.30902621369992</v>
+        <v>139.3620079052053</v>
       </c>
       <c r="D4" t="n">
-        <v>47.30902621369992</v>
+        <v>139.3620079052053</v>
       </c>
       <c r="E4" t="n">
-        <v>47.30902621369992</v>
+        <v>139.3620079052053</v>
       </c>
       <c r="F4" t="n">
-        <v>47.30902621369992</v>
+        <v>47.30902621369997</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369992</v>
+        <v>47.30902621369997</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369992</v>
+        <v>47.30902621369997</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369992</v>
+        <v>47.30902621369997</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369992</v>
+        <v>47.30902621369997</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181643</v>
+        <v>88.80529410181659</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365671</v>
+        <v>197.4326649365673</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950611</v>
+        <v>322.3541198950615</v>
       </c>
       <c r="N4" t="n">
-        <v>449.739838289676</v>
+        <v>449.7398382896764</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885951</v>
+        <v>551.3848716885957</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546215</v>
+        <v>614.8390752546222</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546215</v>
+        <v>614.8390752546222</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546215</v>
+        <v>614.8390752546222</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546215</v>
+        <v>614.8390752546222</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546215</v>
+        <v>614.8390752546222</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546215</v>
+        <v>614.8390752546222</v>
       </c>
       <c r="V4" t="n">
-        <v>614.8390752546215</v>
+        <v>360.1545870487354</v>
       </c>
       <c r="W4" t="n">
-        <v>325.4219052176609</v>
+        <v>360.1545870487354</v>
       </c>
       <c r="X4" t="n">
-        <v>325.4219052176609</v>
+        <v>360.1545870487354</v>
       </c>
       <c r="Y4" t="n">
-        <v>104.6293260741308</v>
+        <v>139.3620079052053</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1005.372199209267</v>
+        <v>2090.781606227855</v>
       </c>
       <c r="C5" t="n">
-        <v>636.4096822688557</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D5" t="n">
-        <v>278.1439836621052</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>278.1439836621052</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>271.1984829129017</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.111371249201</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y5" t="n">
-        <v>1391.972039273389</v>
+        <v>2366.086203674652</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,46 +4649,46 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761947</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482878</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359521</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E7" t="n">
-        <v>79.51460345355898</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1528.349585887292</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="C8" t="n">
-        <v>1528.349585887292</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>1170.083887280542</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>784.2956346822975</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>373.30972989269</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2312.888763586079</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2312.888763586079</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>1981.825876242509</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>1629.057220972395</v>
       </c>
       <c r="X8" t="n">
-        <v>1528.349585887292</v>
+        <v>1255.591462711315</v>
       </c>
       <c r="Y8" t="n">
-        <v>1528.349585887292</v>
+        <v>865.4521307355029</v>
       </c>
     </row>
     <row r="9">
@@ -4874,40 +4874,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>177.7748466502712</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -5007,7 +5007,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5041,28 +5041,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622688</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3819.938960973982</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5071,22 +5071,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161915</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089887</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142067</v>
@@ -5150,19 +5150,19 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
         <v>1138.808109517387</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>368.3587133864239</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>199.422530458517</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>199.422530458517</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>199.422530458517</v>
       </c>
       <c r="F13" t="n">
         <v>95.56103444839442</v>
@@ -5202,49 +5202,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442091</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927052</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892254</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598119</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518532</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931533</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1542.890966501059</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1542.890966501059</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>1288.206478295172</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838521</v>
+        <v>998.7893082582111</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858347</v>
+        <v>770.7997573601938</v>
       </c>
       <c r="Y13" t="n">
-        <v>260.9043113423046</v>
+        <v>550.0071782166636</v>
       </c>
     </row>
     <row r="14">
@@ -5278,25 +5278,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.328657580449</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N14" t="n">
-        <v>3008.107474639231</v>
+        <v>3496.417082105038</v>
       </c>
       <c r="O14" t="n">
-        <v>3888.072124968686</v>
+        <v>3999.389552984375</v>
       </c>
       <c r="P14" t="n">
-        <v>4282.846491325864</v>
+        <v>4394.163919341553</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5387,16 +5387,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>725.3071882816349</v>
+        <v>826.5323180934831</v>
       </c>
       <c r="C16" t="n">
-        <v>556.371005353728</v>
+        <v>657.5961351655762</v>
       </c>
       <c r="D16" t="n">
-        <v>556.371005353728</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="E16" t="n">
-        <v>556.371005353728</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799873</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V16" t="n">
-        <v>1355.737783153422</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W16" t="n">
-        <v>1355.737783153422</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X16" t="n">
-        <v>1127.748232255405</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="Y16" t="n">
-        <v>906.9556531118747</v>
+        <v>998.7893082582084</v>
       </c>
     </row>
     <row r="17">
@@ -5494,19 +5494,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5515,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>2536.153662641309</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N17" t="n">
-        <v>3082.932479700092</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O17" t="n">
-        <v>3585.904950579429</v>
+        <v>3641.993171584094</v>
       </c>
       <c r="P17" t="n">
-        <v>4299.260038026375</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,28 +5594,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>596.6625674470423</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>427.7263845191354</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>277.6097451067997</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>277.6097451067997</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208122</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>999.1036114208122</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>999.1036114208122</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>778.311032277282</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5752,19 +5752,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483405</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542187</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232732</v>
@@ -5779,25 +5779,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5822,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5831,28 +5831,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>909.27315417834</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413794</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>391.8664332433621</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998319</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="23">
@@ -5968,43 +5968,43 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1521.866738172571</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P23" t="n">
         <v>4195.497197679678</v>
@@ -6016,25 +6016,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6068,40 +6068,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>244.1098774754799</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>244.1098774754799</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>244.1098774754799</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>244.1098774754799</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>244.1098774754799</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>646.5509214492497</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>425.7583423057196</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,22 +6323,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6387,7 +6387,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,19 +6399,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
         <v>1542.890966501056</v>
@@ -6420,16 +6420,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208122</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838516</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858343</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423041</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2536.153662641309</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3082.932479700092</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
-        <v>3585.904950579429</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4299.260038026375</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
         <v>4719.034655862919</v>
@@ -6533,7 +6533,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6542,19 +6542,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E31" t="n">
         <v>95.56103444839442</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258583</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6703,10 +6703,10 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>818.2062848686787</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1682.725100522033</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M32" t="n">
         <v>2216.257005193957</v>
@@ -6715,7 +6715,7 @@
         <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
         <v>4470.748294107237</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6779,25 +6779,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
@@ -6861,7 +6861,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208122</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838516</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858343</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423041</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6922,52 +6922,52 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>939.1634975427193</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
         <v>1803.682313196074</v>
       </c>
       <c r="M35" t="n">
-        <v>2337.214217867998</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N35" t="n">
-        <v>2883.99303492678</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O35" t="n">
-        <v>3763.957685256235</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>589.4655956925551</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C37" t="n">
-        <v>420.5294127646482</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>270.4127733523125</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>270.4127733523125</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>270.4127733523125</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>102.7099367270314</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>102.7099367270314</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208122</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>999.1036114208122</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>771.1140605227948</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>771.1140605227948</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7171,55 +7171,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1070.832524924162</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1521.866738172571</v>
+        <v>1153.952538678958</v>
       </c>
       <c r="M38" t="n">
-        <v>2055.398642844495</v>
+        <v>1687.484443350883</v>
       </c>
       <c r="N38" t="n">
-        <v>2602.177459903277</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,16 +7347,16 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
         <v>1780.96276986786</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542187</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O41" t="n">
-        <v>3517.878731871642</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>675.7429179653792</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1849.96086791741</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1560.858001043053</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>1306.173512837166</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>1306.173512837166</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>1078.183961939149</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>857.3913827956189</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
@@ -7651,31 +7651,31 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427191</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2368.748013620956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2915.526830679738</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
         <v>4461.783306331037</v>
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>181.1112734427657</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839441</v>
@@ -7806,10 +7806,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1644.746393431757</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1355.6435265574</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V46" t="n">
-        <v>1100.959038351514</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W46" t="n">
-        <v>811.5418683145529</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X46" t="n">
-        <v>583.5523174165355</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y46" t="n">
-        <v>362.7597382730054</v>
+        <v>613.848518831822</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>64.58008902262961</v>
+        <v>64.58008902262952</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.73248448640448</v>
+        <v>60.73248448640575</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>344.7025836476838</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>258.6211785616931</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8941,13 +8941,13 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>124.0833809162824</v>
+        <v>11.64153443578837</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>160.3329896347532</v>
       </c>
       <c r="Q17" t="n">
-        <v>173.2204606877393</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476853</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>288.047814956104</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476853</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>189.7998007892644</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>173.2204606877393</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10351,13 +10351,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>201.9664098701136</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10594,16 +10594,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>246.454569480844</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>315.1679217109336</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>288.047814956104</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>85.5139255891749</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>285.7011105564223</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,28 +11299,28 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>64.28566532692582</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>42.59816697290989</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>9.297559918859292</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>163.2988046838418</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>131.2186327301383</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270141</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>183.3889571555941</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>18.96245366221365</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.14213605696668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24618,10 +24618,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>77.41759119918781</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>105.0742887270143</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>69.12041821276429</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.14213605696668</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>89.27500715398749</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>16.14213605696685</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>114.2301770707482</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>16.14213605696679</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>82.55208449420029</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>159.6457400831804</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821932.4991971821</v>
+        <v>821932.4991971822</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821932.4991971821</v>
+        <v>821932.4991971822</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
+        <v>595622.6803304746</v>
+      </c>
+      <c r="F2" t="n">
+        <v>595622.6803304746</v>
+      </c>
+      <c r="G2" t="n">
+        <v>595622.6803304746</v>
+      </c>
+      <c r="H2" t="n">
+        <v>595622.6803304749</v>
+      </c>
+      <c r="I2" t="n">
         <v>595622.6803304747</v>
       </c>
-      <c r="F2" t="n">
-        <v>595622.6803304745</v>
-      </c>
-      <c r="G2" t="n">
-        <v>595622.6803304747</v>
-      </c>
-      <c r="H2" t="n">
-        <v>595622.6803304747</v>
-      </c>
-      <c r="I2" t="n">
-        <v>595622.6803304746</v>
-      </c>
       <c r="J2" t="n">
-        <v>595622.6803304747</v>
+        <v>595622.6803304749</v>
       </c>
       <c r="K2" t="n">
         <v>595622.6803304746</v>
       </c>
       <c r="L2" t="n">
+        <v>595622.680330475</v>
+      </c>
+      <c r="M2" t="n">
         <v>595622.6803304747</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>595622.6803304749</v>
       </c>
-      <c r="N2" t="n">
-        <v>595622.6803304745</v>
-      </c>
       <c r="O2" t="n">
-        <v>595622.6803304747</v>
+        <v>595622.6803304749</v>
       </c>
       <c r="P2" t="n">
-        <v>595622.6803304746</v>
+        <v>595622.6803304749</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106496</v>
+        <v>493391.6844106502</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446767</v>
+        <v>91792.639574467</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832163</v>
+        <v>154726.5356832164</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220047</v>
+        <v>21342.09858220032</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235704.9591760453</v>
+        <v>235704.9591760451</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26429,37 +26429,37 @@
         <v>28561.83935289575</v>
       </c>
       <c r="F4" t="n">
+        <v>28561.83935289575</v>
+      </c>
+      <c r="G4" t="n">
+        <v>28561.83935289575</v>
+      </c>
+      <c r="H4" t="n">
         <v>28561.83935289577</v>
       </c>
-      <c r="G4" t="n">
-        <v>28561.83935289577</v>
-      </c>
-      <c r="H4" t="n">
-        <v>28561.83935289578</v>
-      </c>
       <c r="I4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="J4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="L4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="M4" t="n">
-        <v>28561.83935289578</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="N4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="O4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="P4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289575</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140135</v>
+        <v>76261.10613140138</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26481,25 +26481,25 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-189576.4223198832</v>
+        <v>-189576.4223198838</v>
       </c>
       <c r="C6" t="n">
-        <v>231207.1942973022</v>
+        <v>231207.194297303</v>
       </c>
       <c r="D6" t="n">
-        <v>322999.8338717698</v>
+        <v>322999.8338717695</v>
       </c>
       <c r="E6" t="n">
-        <v>-257372.0461717992</v>
+        <v>-256767.2867597673</v>
       </c>
       <c r="F6" t="n">
-        <v>470005.3678216074</v>
+        <v>470610.1272336394</v>
       </c>
       <c r="G6" t="n">
-        <v>470005.3678216074</v>
+        <v>470610.1272336394</v>
       </c>
       <c r="H6" t="n">
-        <v>470005.3678216074</v>
+        <v>470610.1272336397</v>
       </c>
       <c r="I6" t="n">
-        <v>470005.3678216073</v>
+        <v>470610.1272336395</v>
       </c>
       <c r="J6" t="n">
-        <v>315278.832138391</v>
+        <v>315883.5915504232</v>
       </c>
       <c r="K6" t="n">
-        <v>448663.2692394069</v>
+        <v>449268.0286514391</v>
       </c>
       <c r="L6" t="n">
-        <v>470005.3678216074</v>
+        <v>470610.1272336398</v>
       </c>
       <c r="M6" t="n">
-        <v>340363.0529826627</v>
+        <v>340967.8123946949</v>
       </c>
       <c r="N6" t="n">
-        <v>470005.3678216072</v>
+        <v>470610.1272336397</v>
       </c>
       <c r="O6" t="n">
-        <v>470005.3678216074</v>
+        <v>470610.1272336397</v>
       </c>
       <c r="P6" t="n">
-        <v>470005.3678216073</v>
+        <v>470610.1272336397</v>
       </c>
     </row>
   </sheetData>
@@ -26703,7 +26703,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.6252644185777e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435509</v>
+        <v>306.3599178435513</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.362827671249</v>
+        <v>591.3628276712495</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435509</v>
+        <v>306.3599178435513</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353581</v>
+        <v>71.3837463735353</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.362827671249</v>
+        <v>591.3628276712495</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330665</v>
+        <v>82.92444508330607</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.362827671249</v>
+        <v>591.3628276712495</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330665</v>
+        <v>82.92444508330607</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.362827671249</v>
+        <v>591.3628276712495</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330665</v>
+        <v>82.92444508330607</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>391.3554420428985</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836455</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174283</v>
+        <v>72.50477145174271</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164567</v>
+        <v>14.99040988796042</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27472,10 +27472,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>7.556927764234572</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296167</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>182.3069027665532</v>
+        <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>110.4997242368012</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>54.288596148341</v>
       </c>
       <c r="G4" t="n">
         <v>167.4385270475933</v>
@@ -27557,10 +27557,10 @@
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514146</v>
+        <v>138.8367272514145</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848761</v>
+        <v>54.30080173848756</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731821</v>
+        <v>39.90169565731814</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631662</v>
+        <v>152.4531265631661</v>
       </c>
       <c r="S4" t="n">
         <v>214.3888609467085</v>
@@ -27596,10 +27596,10 @@
         <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>110.1822901911517</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>198.7012239391831</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>120.1051426060687</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>249.542405674054</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>64.9247115836194</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>22.82750184132354</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28274,7 +28274,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2.733694752047692e-12</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672565</v>
+        <v>1.231597659672567</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212166</v>
+        <v>12.61309953212168</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452662</v>
+        <v>47.48116877452669</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676345</v>
+        <v>104.5303118676347</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015742</v>
+        <v>156.6638408015745</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787785</v>
+        <v>194.3553476787788</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589805</v>
+        <v>216.2577725589808</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095252</v>
+        <v>219.7570494095255</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811561</v>
+        <v>207.5103501811564</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579896</v>
+        <v>177.1052829579899</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709658</v>
+        <v>132.998691770966</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940686</v>
+        <v>77.36434648940697</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978861</v>
+        <v>28.06503166978865</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216658</v>
+        <v>5.391318755216666</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380521</v>
+        <v>0.09852781277380536</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540529</v>
+        <v>0.6589628421540539</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014143</v>
+        <v>6.364193765014153</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784787</v>
+        <v>22.68797504784791</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403708</v>
+        <v>62.25753764403717</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683586</v>
+        <v>106.4080480683588</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966508</v>
+        <v>143.078752196651</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247352</v>
+        <v>166.9661552247354</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302333</v>
+        <v>171.3852525302335</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382934</v>
+        <v>156.7840232382937</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723823</v>
+        <v>125.8330009723825</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338402</v>
+        <v>84.11602876338414</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163498</v>
+        <v>40.91349997163504</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422111</v>
+        <v>12.23994577422112</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945502</v>
+        <v>2.656082683945506</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276665</v>
+        <v>0.04335281856276672</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654196</v>
+        <v>0.5524523108654203</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967098</v>
+        <v>4.911803272967105</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584371</v>
+        <v>16.61374767584374</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818516</v>
+        <v>39.05837837818522</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509146</v>
+        <v>64.18491393509156</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448248</v>
+        <v>82.13459174448261</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502207</v>
+        <v>86.5994108750222</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361467</v>
+        <v>84.5402704436148</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395951</v>
+        <v>78.08662299395962</v>
       </c>
       <c r="P4" t="n">
-        <v>66.8165958523049</v>
+        <v>66.816595852305</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437618</v>
+        <v>46.26034759437625</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400331</v>
+        <v>24.84026481400335</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263718</v>
+        <v>9.627737090263732</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515883</v>
+        <v>2.360478055515887</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0301337624108411</v>
+        <v>0.03013376241084115</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302198</v>
+        <v>92.58102251302213</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277584</v>
+        <v>260.7194023277586</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592418</v>
+        <v>376.250147259242</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245403</v>
+        <v>435.4250728245406</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249184</v>
+        <v>427.6909102249188</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222147</v>
+        <v>358.2123200222151</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742027</v>
+        <v>267.670995374203</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.007992556421</v>
+        <v>123.0079925564212</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065782</v>
+        <v>233.0318461065784</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202358</v>
+        <v>375.3647177202361</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527168</v>
+        <v>490.5371850527171</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904535</v>
+        <v>519.3859147904537</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705785</v>
+        <v>408.0500980705788</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979892</v>
+        <v>310.3213621979894</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.866739163766985</v>
+        <v>4.866739163768363</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920861</v>
+        <v>41.91542210920871</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047986</v>
+        <v>109.7246170047987</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368627</v>
+        <v>126.1832878368628</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228433</v>
+        <v>128.6724428228434</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079992</v>
+        <v>102.6717509079993</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719839</v>
+        <v>64.09515511719849</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>800.2926980400159</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>657.3831647810649</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443223</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>374.8776857200019</v>
+        <v>262.4358392395079</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>559.0949758541251</v>
       </c>
       <c r="Q17" t="n">
-        <v>424.0147654914588</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359043</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,25 +36360,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>625.2391015115044</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>684.4630967757926</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359043</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>742.1016362021759</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>424.0147654914588</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>539.157696425514</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>798.7564048937555</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>713.9299079303053</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>625.2391015115044</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>541.1040399815071</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>684.4630967757939</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>572.3386662151448</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
